--- a/A-开发相关文档素材/2.数据库表/数据库表.xlsx
+++ b/A-开发相关文档素材/2.数据库表/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="账户表" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,6 +525,10 @@
   </si>
   <si>
     <t>GTD_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_NUMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1142,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
@@ -2025,7 +2029,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2090,13 +2094,7 @@
       <c r="B4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2120,11 +2118,21 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2800,7 +2808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/A-开发相关文档素材/2.数据库表/数据库表.xlsx
+++ b/A-开发相关文档素材/2.数据库表/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="账户表" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="132">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,6 +529,14 @@
   </si>
   <si>
     <t>GROUP_NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_REMIND_REPEAT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复提醒类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2442,13 +2450,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2707,12 +2715,18 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
@@ -2808,7 +2822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/A-开发相关文档素材/2.数据库表/数据库表.xlsx
+++ b/A-开发相关文档素材/2.数据库表/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="账户表" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="角色表" sheetId="3" r:id="rId3"/>
     <sheet name="通讯录表" sheetId="4" r:id="rId4"/>
     <sheet name="群组表" sheetId="7" r:id="rId5"/>
-    <sheet name="日程事件（父）表" sheetId="5" r:id="rId6"/>
+    <sheet name="附件表" sheetId="5" r:id="rId6"/>
     <sheet name="日程事件表" sheetId="6" r:id="rId7"/>
     <sheet name="个人关注表" sheetId="8" r:id="rId8"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="136">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,9 +57,6 @@
     <t>角色表</t>
   </si>
   <si>
-    <t>日程事件（父）表</t>
-  </si>
-  <si>
     <t>日程事件表</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>通讯录表</t>
   </si>
   <si>
-    <t>SCHEDULE_PARENT_ID</t>
-  </si>
-  <si>
     <t>ROLE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,9 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日程事件（父）ID</t>
-  </si>
-  <si>
     <t>FOCUS_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SCHEDULE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日程事件（父）ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SCHEDULE_MAP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,30 +459,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTD_SCHEDULE_PARENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_PARENT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_PARENT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_PARENT_ACCESSORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FOCUS_NUMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCHEDULE_PARENT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SCHEDULE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -537,6 +500,62 @@
   </si>
   <si>
     <t>重复提醒类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件上传人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCESSORY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCESSORY_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCESSORY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_ACCESSORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1168,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1188,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1199,92 +1218,92 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1395,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1415,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1426,112 +1445,112 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1626,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1646,7 +1665,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1657,50 +1676,50 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1823,16 +1842,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1846,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1857,98 +1876,98 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -2037,7 +2056,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2050,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2070,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -2081,75 +2100,85 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
@@ -2234,10 +2263,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2251,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2271,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -2282,70 +2311,66 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2420,21 +2445,13 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+    <row r="16" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2450,8 +2467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2465,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2485,7 +2502,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -2496,236 +2513,236 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -2822,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2836,13 +2853,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2856,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -2867,88 +2884,88 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">

--- a/A-开发相关文档素材/2.数据库表/数据库表.xlsx
+++ b/A-开发相关文档素材/2.数据库表/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="账户表" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="139">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,22 +379,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>不可为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>✓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不可为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>✓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>✓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SCHEDULE_MAP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -471,91 +467,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SCHEDULE_CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_REMIND_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_REMIND_REPEAT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复提醒类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件上传人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCESSORY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCESSORY_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCESSORY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_ACCESSORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_EDIT_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_START_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SCHEDULE_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCHEDULE_CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_EDIT_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_REMIND_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_REMIND_REPEAT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复提醒类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件上传人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCESSORY_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCESSORY_URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
+    <t>SCHEDULE_NUMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCESSORY_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_ACCESSORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1187,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1207,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1434,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1475,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>25</v>
@@ -1505,7 +1517,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>40</v>
@@ -1665,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1704,7 +1716,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>21</v>
@@ -1719,7 +1731,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1865,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1936,7 +1948,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>61</v>
@@ -1947,27 +1959,27 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -2069,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -2089,7 +2101,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -2146,7 +2158,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>17</v>
@@ -2161,15 +2173,15 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
@@ -2177,7 +2189,7 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2280,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2300,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -2311,7 +2323,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
@@ -2326,7 +2338,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2347,7 +2359,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>20</v>
@@ -2356,12 +2368,12 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>17</v>
@@ -2370,7 +2382,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2465,10 +2477,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2482,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -2502,7 +2514,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -2518,22 +2530,18 @@
       <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>18</v>
@@ -2599,7 +2607,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>84</v>
@@ -2615,21 +2623,23 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>84</v>
@@ -2638,12 +2648,12 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>84</v>
@@ -2652,28 +2662,26 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>21</v>
@@ -2682,84 +2690,104 @@
       <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
@@ -2817,13 +2845,21 @@
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2839,7 +2875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2853,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -2873,7 +2909,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -2900,7 +2936,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>21</v>
@@ -2911,12 +2947,12 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>21</v>
@@ -2934,7 +2970,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>21</v>
@@ -2949,7 +2985,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2965,7 +3001,7 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -3054,5 +3090,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/A-开发相关文档素材/2.数据库表/数据库表.xlsx
+++ b/A-开发相关文档素材/2.数据库表/数据库表.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="账户表" sheetId="1" r:id="rId1"/>
     <sheet name="用户表" sheetId="2" r:id="rId2"/>
     <sheet name="角色表" sheetId="3" r:id="rId3"/>
     <sheet name="通讯录表" sheetId="4" r:id="rId4"/>
-    <sheet name="群组表" sheetId="7" r:id="rId5"/>
-    <sheet name="附件表" sheetId="5" r:id="rId6"/>
-    <sheet name="日程事件表" sheetId="6" r:id="rId7"/>
-    <sheet name="个人关注表" sheetId="8" r:id="rId8"/>
+    <sheet name="通讯录分组" sheetId="9" r:id="rId5"/>
+    <sheet name="群组表" sheetId="7" r:id="rId6"/>
+    <sheet name="附件表" sheetId="5" r:id="rId7"/>
+    <sheet name="日程事件表" sheetId="6" r:id="rId8"/>
+    <sheet name="个人关注表" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="157">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,14 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,7 +141,362 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NICKNAME</t>
+    <t>ID_NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_HEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_ADDRESS_LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDRESS_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录表</t>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDRESS_WAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUS_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注主体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_DETIAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ISSUER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_EXECUTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_FINISH_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_END_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_REMIND_REPEAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_FOCUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDRESS_NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUS_NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_REMIND_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_REMIND_REPEAT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复提醒类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件上传人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCESSORY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCESSORY_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_ACCESSORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_EDIT_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_START_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,11 +504,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
+    <t>USER_SEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_BIRTHDAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(150)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_ADDRESS_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDRESS_GROUP_TYPE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDRESS_GROUP_TYPE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录分组表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,94 +611,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_HEAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_ADDRESS_LIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDRESS_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯录表</t>
-  </si>
-  <si>
-    <t>ROLE_ID</t>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUS_SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUS_GROUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUS_USER_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -263,311 +631,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ADDRESS_WAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDRESS_TYPE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDRESS_TYPE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUS_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注主体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_DETIAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ISSUER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_EXECUTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_FINISH_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_END_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_STATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_MAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_REMIND_REPEAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_FOCUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDRESS_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUS_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_REMIND_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_REMIND_REPEAT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复提醒类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件上传人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCESSORY_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCESSORY_URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCESSORY_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_ACCESSORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_EDIT_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_START_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
+    <t>关注用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注群组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注日程事件ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1186,7 +1258,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1199,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1219,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1236,16 +1308,16 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1253,17 +1325,17 @@
         <v>12</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1271,15 +1343,15 @@
         <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1287,17 +1359,17 @@
         <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1305,17 +1377,17 @@
         <v>16</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1410,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1426,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1446,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1463,123 +1535,135 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
@@ -1621,13 +1705,29 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1644,7 +1744,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1657,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1677,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1688,51 +1788,47 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
@@ -1841,29 +1937,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1877,7 +1974,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1888,99 +1985,93 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
@@ -2038,21 +2129,13 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+    <row r="16" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2068,12 +2151,13 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2081,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2101,7 +2185,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -2112,85 +2196,71 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" s="5" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>21</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>123</v>
-      </c>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
@@ -2283,6 +2353,216 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="6" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
     <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="20.625" customWidth="1"/>
   </cols>
@@ -2292,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2312,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -2323,57 +2603,59 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>17</v>
@@ -2382,7 +2664,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2464,402 +2746,6 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2873,10 +2759,406 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2889,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -2909,7 +3191,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -2920,97 +3202,97 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
@@ -3076,13 +3358,21 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/A-开发相关文档素材/2.数据库表/数据库表.xlsx
+++ b/A-开发相关文档素材/2.数据库表/数据库表.xlsx
@@ -15,14 +15,15 @@
     <sheet name="群组表" sheetId="7" r:id="rId6"/>
     <sheet name="附件表" sheetId="5" r:id="rId7"/>
     <sheet name="日程事件表" sheetId="6" r:id="rId8"/>
-    <sheet name="个人关注表" sheetId="8" r:id="rId9"/>
+    <sheet name="执行事件表" sheetId="10" r:id="rId9"/>
+    <sheet name="个人关注表" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="174">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,31 +281,366 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_FINISH_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_END_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_REMIND_REPEAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_FOCUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDRESS_NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUS_NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_REMIND_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复提醒类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件上传人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCESSORY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCESSORY_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_ACCESSORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_EDIT_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_START_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_SEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_BIRTHDAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(150)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_ADDRESS_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDRESS_GROUP_TYPE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDRESS_GROUP_TYPE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录分组表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUS_SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUS_GROUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUS_USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注群组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>执行人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_EXECUTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_FINISH_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_END_DATE</t>
+    <t>执行事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_STATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,83 +648,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCHEDULE_STATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_MAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_REMIND_REPEAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_FOCUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDRESS_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自增主键</t>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_REMIND_REPEAT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复提醒类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复提醒日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_EXECUTOR_SCHEDULE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -396,250 +684,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUS_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_REMIND_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_REMIND_REPEAT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复提醒类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件上传人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCESSORY_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCESSORY_URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_ACCESSORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_EDIT_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_START_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_SEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_BIRTHDAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REAL_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(300)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(150)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_ADDRESS_GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDRESS_GROUP_TYPE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDRESS_GROUP_TYPE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯录分组表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUS_SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUS_GROUP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUS_USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注群组ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注日程事件ID</t>
+    <t>EXECUTOR_FINISH_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTOR_SCHEDULE_NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTOR_STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTOR_REMIND_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTOR_REMIND_REPEAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTOR_REMIND_REPEAT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复提醒日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1291,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1325,7 +1394,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -1343,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -1359,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -1469,6 +1538,237 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="6" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1518,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1559,7 +1859,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>23</v>
@@ -1567,10 +1867,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1581,30 +1881,30 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1612,12 +1912,12 @@
         <v>30</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>35</v>
@@ -1625,10 +1925,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1642,7 +1942,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1656,7 +1956,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1777,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1811,7 +2111,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -1974,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1988,7 +2288,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -2004,7 +2304,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -2017,7 +2317,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>19</v>
@@ -2031,7 +2331,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>53</v>
@@ -2042,15 +2342,15 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
@@ -2062,7 +2362,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2165,13 +2465,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2185,7 +2485,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -2196,7 +2496,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
@@ -2211,15 +2511,15 @@
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -2227,7 +2527,7 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2361,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -2381,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -2438,7 +2738,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>17</v>
@@ -2453,15 +2753,15 @@
         <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
@@ -2469,7 +2769,7 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2572,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2592,7 +2892,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -2603,7 +2903,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
@@ -2618,7 +2918,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2639,23 +2939,23 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>17</v>
@@ -2664,7 +2964,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2759,10 +3059,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2776,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -2796,7 +3096,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -2807,26 +3107,30 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -2834,7 +3138,7 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2842,13 +3146,13 @@
         <v>63</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2871,99 +3175,97 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>19</v>
@@ -2972,104 +3274,84 @@
       <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="7" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>131</v>
-      </c>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>120</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
@@ -3119,29 +3401,13 @@
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
+    <row r="26" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3155,15 +3421,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3171,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3191,7 +3458,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -3202,113 +3469,121 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="A10" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
@@ -3366,13 +3641,77 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3380,6 +3719,5 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/A-开发相关文档素材/2.数据库表/数据库表.xlsx
+++ b/A-开发相关文档素材/2.数据库表/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="账户表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="174">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3061,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3166,9 +3166,7 @@
       <c r="D6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
         <v>65</v>
       </c>
@@ -3271,12 +3269,8 @@
         <v>19</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="7" t="s">
         <v>109</v>
       </c>
@@ -3423,7 +3417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3719,5 +3713,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/A-开发相关文档素材/2.数据库表/数据库表.xlsx
+++ b/A-开发相关文档素材/2.数据库表/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="账户表" sheetId="1" r:id="rId1"/>
@@ -432,12 +432,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,14 +455,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -470,7 +462,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,38 +505,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,21 +521,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -576,7 +553,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,13 +597,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -620,7 +613,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,13 +721,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,121 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,19 +787,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,13 +1007,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1049,6 +1046,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1064,32 +1076,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,157 +1096,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2989,8 +2982,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3405,8 +3398,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3589,7 +3582,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" ht="14.25" spans="1:6">
       <c r="A12" s="11" t="s">
         <v>100</v>
       </c>
@@ -3609,8 +3602,8 @@
       <c r="A13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>10</v>
+      <c r="B13" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>

--- a/A-开发相关文档素材/2.数据库表/数据库表.xlsx
+++ b/A-开发相关文档素材/2.数据库表/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="7"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="账户表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
   <si>
     <t>表名</t>
   </si>
@@ -398,12 +398,6 @@
   </si>
   <si>
     <t>个人关注表</t>
-  </si>
-  <si>
-    <t>FOCUS_TYPE</t>
-  </si>
-  <si>
-    <t>关注主体</t>
   </si>
   <si>
     <t>FOCUS_GROUP_ID</t>
@@ -455,84 +449,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,7 +472,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,7 +510,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,6 +575,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -613,7 +607,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +625,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,7 +721,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,43 +733,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,19 +757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,13 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,61 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,7 +872,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -893,7 +887,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -905,13 +899,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -920,13 +929,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -938,7 +962,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -950,28 +974,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -980,44 +989,23 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,16 +1035,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,31 +1084,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,10 +1104,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,133 +1116,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1282,13 +1276,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1699,174 +1693,174 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" ht="14.25" spans="1:6">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1881,10 +1875,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1906,7 +1900,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1934,171 +1928,155 @@
         <v>10</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13" t="s">
-        <v>132</v>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>56</v>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:6">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="13"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:6">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2159,206 +2137,206 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="13"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" ht="14.25" spans="1:6">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2376,7 +2354,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2419,144 +2397,144 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" ht="14.25" spans="1:6">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2617,158 +2595,158 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" ht="14.25" spans="1:6">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2829,144 +2807,144 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" ht="14.25" spans="1:6">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2983,7 +2961,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3026,158 +3004,158 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" ht="14.25" spans="1:6">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3238,150 +3216,150 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" ht="14.25" spans="1:6">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3398,8 +3376,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3443,302 +3421,302 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="13" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:6">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="13" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="13" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="13" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="13"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="13"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="13"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="13"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="13"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="13"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="13"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" ht="14.25" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3800,250 +3778,250 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="13" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="13"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="13"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="13"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="13"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="13"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="13"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="13"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="13"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" ht="14.25" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/A-开发相关文档素材/2.数据库表/数据库表.xlsx
+++ b/A-开发相关文档素材/2.数据库表/数据库表.xlsx
@@ -17,13 +17,14 @@
     <sheet name="日程事件表" sheetId="6" r:id="rId8"/>
     <sheet name="执行事件表" sheetId="10" r:id="rId9"/>
     <sheet name="个人关注表" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>表名</t>
   </si>
@@ -400,22 +401,16 @@
     <t>个人关注表</t>
   </si>
   <si>
-    <t>FOCUS_GROUP_ID</t>
-  </si>
-  <si>
-    <t>关注群组ID</t>
-  </si>
-  <si>
-    <t>FOCUS_USER_ID</t>
-  </si>
-  <si>
-    <t>关注用户ID</t>
-  </si>
-  <si>
-    <t>FOCUS_SCHEDULE_ID</t>
-  </si>
-  <si>
-    <t>关注日程事件ID</t>
+    <t>FOCUS_ALL_ID</t>
+  </si>
+  <si>
+    <t>关注ID（组群，日程，用户）</t>
+  </si>
+  <si>
+    <t>FOCUS_TYPE</t>
+  </si>
+  <si>
+    <t>关注类型（1组群，2日程，3用户）</t>
   </si>
   <si>
     <t>FOCUS_NUMBER</t>
@@ -426,9 +421,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -449,9 +444,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,29 +527,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -502,7 +534,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -518,43 +550,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,17 +573,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -607,31 +602,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,67 +674,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,13 +698,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,19 +740,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,31 +782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,63 +992,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,6 +1022,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1098,16 +1063,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,19 +1111,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1137,112 +1132,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1875,18 +1870,19 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="6" width="20.625" customWidth="1"/>
+    <col min="1" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:6">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1900,7 +1896,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1955,48 +1951,42 @@
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="9" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="E6" s="8"/>
       <c r="F6" s="9" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6"/>
@@ -2062,21 +2052,13 @@
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:6">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+    <row r="16" ht="14.25" spans="1:6">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2084,6 +2066,22 @@
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/A-开发相关文档素材/2.数据库表/数据库表.xlsx
+++ b/A-开发相关文档素材/2.数据库表/数据库表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
   <si>
     <t>表名</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>SCHEDULE_CREATE_DATE</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
   </si>
   <si>
     <t>创建时间</t>
@@ -422,8 +425,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -444,21 +447,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -473,30 +461,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,7 +493,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,14 +545,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,9 +567,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,6 +577,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,25 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,7 +629,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,139 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,17 +995,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,16 +1018,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,22 +1042,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,16 +1063,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,10 +1102,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1111,133 +1114,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1873,7 +1876,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1882,18 +1885,18 @@
     <col min="6" max="6" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -1918,7 +1921,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>10</v>
@@ -1927,12 +1930,12 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>10</v>
@@ -1941,12 +1944,12 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
@@ -2092,7 +2095,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3375,7 +3378,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3489,7 +3492,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
@@ -3497,15 +3500,15 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
@@ -3513,54 +3516,54 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
@@ -3571,7 +3574,7 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3590,49 +3593,49 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>10</v>
@@ -3641,7 +3644,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3732,7 +3735,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3746,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -3786,7 +3789,7 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3800,26 +3803,26 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>10</v>
@@ -3828,40 +3831,40 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>10</v>
@@ -3870,12 +3873,12 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>10</v>
